--- a/Word-Printer/samples/Level4/四层项目/XXX项目/10 ZRXX-20000-RM-P-01 发布管理程序记录/ZRXX-20000-RM-R-01 发布通知单-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/10 ZRXX-20000-RM-P-01 发布管理程序记录/ZRXX-20000-RM-R-01 发布通知单-XXX项目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\10 ZRXX-20000-RM-P-01 发布管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32770" yWindow="32770" windowWidth="11690" windowHeight="7700"/>
+    <workbookView xWindow="32775" yWindow="32775" windowWidth="11685" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="发布通知单" sheetId="3" r:id="rId1"/>
@@ -185,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -341,6 +346,41 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD40000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA70000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFBF0000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA80000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA90000"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -793,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -811,8 +851,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,12 +860,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -859,9 +893,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -877,16 +908,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,9 +955,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA90000"/>
+      <color rgb="FFA80000"/>
+      <color rgb="FFBF0000"/>
+      <color rgb="FFA70000"/>
+      <color rgb="FFD40000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -963,7 +1018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,7 +1053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1210,18 +1265,18 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1285,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1239,170 +1294,167 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B10:E12"/>
     <mergeCell ref="B14:E16"/>
@@ -1410,11 +1462,14 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
